--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Spon2</t>
   </si>
   <si>
     <t>Itgb2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.436226</v>
+        <v>0.4500866666666667</v>
       </c>
       <c r="H2">
-        <v>1.308678</v>
+        <v>1.35026</v>
       </c>
       <c r="I2">
-        <v>0.02612337021374315</v>
+        <v>0.02628438542510526</v>
       </c>
       <c r="J2">
-        <v>0.02612337021374314</v>
+        <v>0.02628438542510525</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1087903333333333</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N2">
-        <v>0.326371</v>
+        <v>0.343534</v>
       </c>
       <c r="O2">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P2">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q2">
-        <v>0.04745717194866667</v>
+        <v>0.05154002431555556</v>
       </c>
       <c r="R2">
-        <v>0.427114547538</v>
+        <v>0.46386021884</v>
       </c>
       <c r="S2">
-        <v>4.258523959031353E-05</v>
+        <v>4.692723780811269E-05</v>
       </c>
       <c r="T2">
-        <v>4.258523959031353E-05</v>
+        <v>4.692723780811267E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.436226</v>
+        <v>0.4500866666666667</v>
       </c>
       <c r="H3">
-        <v>1.308678</v>
+        <v>1.35026</v>
       </c>
       <c r="I3">
-        <v>0.02612337021374315</v>
+        <v>0.02628438542510526</v>
       </c>
       <c r="J3">
-        <v>0.02612337021374314</v>
+        <v>0.02628438542510525</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.402575</v>
       </c>
       <c r="O3">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P3">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q3">
-        <v>0.20394656065</v>
+        <v>0.2104267688333334</v>
       </c>
       <c r="R3">
-        <v>1.83551904585</v>
+        <v>1.8938409195</v>
       </c>
       <c r="S3">
-        <v>0.0001830094966108631</v>
+        <v>0.0001915937594785775</v>
       </c>
       <c r="T3">
-        <v>0.0001830094966108631</v>
+        <v>0.0001915937594785774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.436226</v>
+        <v>0.4500866666666667</v>
       </c>
       <c r="H4">
-        <v>1.308678</v>
+        <v>1.35026</v>
       </c>
       <c r="I4">
-        <v>0.02612337021374315</v>
+        <v>0.02628438542510526</v>
       </c>
       <c r="J4">
-        <v>0.02612337021374314</v>
+        <v>0.02628438542510525</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8144386666666666</v>
+        <v>63.556834</v>
       </c>
       <c r="N4">
-        <v>2.443316</v>
+        <v>190.670502</v>
       </c>
       <c r="O4">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P4">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q4">
-        <v>0.3552793218053333</v>
+        <v>28.60608355894667</v>
       </c>
       <c r="R4">
-        <v>3.197513896248</v>
+        <v>257.45475203052</v>
       </c>
       <c r="S4">
-        <v>0.0003188065031968113</v>
+        <v>0.02604586442781857</v>
       </c>
       <c r="T4">
-        <v>0.0003188065031968113</v>
+        <v>0.02604586442781856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.436226</v>
+        <v>15.76143266666667</v>
       </c>
       <c r="H5">
-        <v>1.308678</v>
+        <v>47.284298</v>
       </c>
       <c r="I5">
-        <v>0.02612337021374315</v>
+        <v>0.9204439983318276</v>
       </c>
       <c r="J5">
-        <v>0.02612337021374314</v>
+        <v>0.9204439983318274</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>65.34528366666666</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N5">
-        <v>196.035851</v>
+        <v>0.343534</v>
       </c>
       <c r="O5">
-        <v>0.9791603749844043</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P5">
-        <v>0.9791603749844044</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q5">
-        <v>28.50531171277533</v>
+        <v>1.804862669903555</v>
       </c>
       <c r="R5">
-        <v>256.547805414978</v>
+        <v>16.243764029132</v>
       </c>
       <c r="S5">
-        <v>0.02557896897434516</v>
+        <v>0.001643329060207417</v>
       </c>
       <c r="T5">
-        <v>0.02557896897434516</v>
+        <v>0.001643329060207416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>47.284298</v>
       </c>
       <c r="I6">
-        <v>0.9438725354525366</v>
+        <v>0.9204439983318276</v>
       </c>
       <c r="J6">
-        <v>0.9438725354525365</v>
+        <v>0.9204439983318274</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1087903333333333</v>
+        <v>0.467525</v>
       </c>
       <c r="N6">
-        <v>0.326371</v>
+        <v>1.402575</v>
       </c>
       <c r="O6">
-        <v>0.001630158713897873</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P6">
-        <v>0.001630158713897873</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q6">
-        <v>1.714691513617556</v>
+        <v>7.368863807483334</v>
       </c>
       <c r="R6">
-        <v>15.432223622558</v>
+        <v>66.31977426735</v>
       </c>
       <c r="S6">
-        <v>0.001538662038476831</v>
+        <v>0.006709357026147099</v>
       </c>
       <c r="T6">
-        <v>0.001538662038476831</v>
+        <v>0.006709357026147098</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>47.284298</v>
       </c>
       <c r="I7">
-        <v>0.9438725354525366</v>
+        <v>0.9204439983318276</v>
       </c>
       <c r="J7">
-        <v>0.9438725354525365</v>
+        <v>0.9204439983318274</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +865,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.467525</v>
+        <v>63.556834</v>
       </c>
       <c r="N7">
-        <v>1.402575</v>
+        <v>190.670502</v>
       </c>
       <c r="O7">
-        <v>0.007005585233201815</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P7">
-        <v>0.007005585233201815</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q7">
-        <v>7.368863807483334</v>
+        <v>1001.746759597511</v>
       </c>
       <c r="R7">
-        <v>66.31977426735</v>
+        <v>9015.720836377595</v>
       </c>
       <c r="S7">
-        <v>0.006612379496391046</v>
+        <v>0.9120913122454731</v>
       </c>
       <c r="T7">
-        <v>0.006612379496391046</v>
+        <v>0.9120913122454729</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.76143266666667</v>
+        <v>0.9026056666666666</v>
       </c>
       <c r="H8">
-        <v>47.284298</v>
+        <v>2.707817</v>
       </c>
       <c r="I8">
-        <v>0.9438725354525366</v>
+        <v>0.05271081546417152</v>
       </c>
       <c r="J8">
-        <v>0.9438725354525365</v>
+        <v>0.05271081546417151</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,43 +927,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.8144386666666666</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N8">
-        <v>2.443316</v>
+        <v>0.343534</v>
       </c>
       <c r="O8">
-        <v>0.01220388106849596</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P8">
-        <v>0.01220388106849596</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q8">
-        <v>12.83672020579644</v>
+        <v>0.1033585783642222</v>
       </c>
       <c r="R8">
-        <v>115.530481852168</v>
+        <v>0.930227205278</v>
       </c>
       <c r="S8">
-        <v>0.01151890816648249</v>
+        <v>9.410807718502382E-05</v>
       </c>
       <c r="T8">
-        <v>0.01151890816648249</v>
+        <v>9.410807718502378E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.76143266666667</v>
+        <v>0.9026056666666666</v>
       </c>
       <c r="H9">
-        <v>47.284298</v>
+        <v>2.707817</v>
       </c>
       <c r="I9">
-        <v>0.9438725354525366</v>
+        <v>0.05271081546417152</v>
       </c>
       <c r="J9">
-        <v>0.9438725354525365</v>
+        <v>0.05271081546417151</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.34528366666666</v>
+        <v>0.467525</v>
       </c>
       <c r="N9">
-        <v>196.035851</v>
+        <v>1.402575</v>
       </c>
       <c r="O9">
-        <v>0.9791603749844043</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P9">
-        <v>0.9791603749844044</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q9">
-        <v>1029.9352885964</v>
+        <v>0.4219907143083333</v>
       </c>
       <c r="R9">
-        <v>9269.417597367597</v>
+        <v>3.797916428775</v>
       </c>
       <c r="S9">
-        <v>0.9242025857511862</v>
+        <v>0.0003842229192970267</v>
       </c>
       <c r="T9">
-        <v>0.9242025857511862</v>
+        <v>0.0003842229192970266</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,14 +1018,14 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1033,202 +1033,202 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5010290000000001</v>
+        <v>0.9026056666666666</v>
       </c>
       <c r="H10">
-        <v>1.503087</v>
+        <v>2.707817</v>
       </c>
       <c r="I10">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417152</v>
       </c>
       <c r="J10">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417151</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1087903333333333</v>
+        <v>63.556834</v>
       </c>
       <c r="N10">
-        <v>0.326371</v>
+        <v>190.670502</v>
       </c>
       <c r="O10">
-        <v>0.001630158713897873</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P10">
-        <v>0.001630158713897873</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q10">
-        <v>0.05450711191966667</v>
+        <v>57.36675852379267</v>
       </c>
       <c r="R10">
-        <v>0.4905640072770001</v>
+        <v>516.300826714134</v>
       </c>
       <c r="S10">
-        <v>4.891143583072811E-05</v>
+        <v>0.05223248446768948</v>
       </c>
       <c r="T10">
-        <v>4.891143583072811E-05</v>
+        <v>0.05223248446768946</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.5010290000000001</v>
+        <v>0.009603</v>
       </c>
       <c r="H11">
-        <v>1.503087</v>
+        <v>0.028809</v>
       </c>
       <c r="I11">
-        <v>0.0300040943337204</v>
+        <v>0.0005608007788958107</v>
       </c>
       <c r="J11">
-        <v>0.0300040943337204</v>
+        <v>0.0005608007788958106</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.467525</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N11">
-        <v>1.402575</v>
+        <v>0.343534</v>
       </c>
       <c r="O11">
-        <v>0.007005585233201815</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P11">
-        <v>0.007005585233201815</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q11">
-        <v>0.2342435832250001</v>
+        <v>0.001099652334</v>
       </c>
       <c r="R11">
-        <v>2.108192249025</v>
+        <v>0.009896871006000001</v>
       </c>
       <c r="S11">
-        <v>0.0002101962401999059</v>
+        <v>1.001234424491519E-06</v>
       </c>
       <c r="T11">
-        <v>0.0002101962401999059</v>
+        <v>1.001234424491519E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5010290000000001</v>
+        <v>0.009603</v>
       </c>
       <c r="H12">
-        <v>1.503087</v>
+        <v>0.028809</v>
       </c>
       <c r="I12">
-        <v>0.0300040943337204</v>
+        <v>0.0005608007788958107</v>
       </c>
       <c r="J12">
-        <v>0.0300040943337204</v>
+        <v>0.0005608007788958106</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8144386666666666</v>
+        <v>0.467525</v>
       </c>
       <c r="N12">
-        <v>2.443316</v>
+        <v>1.402575</v>
       </c>
       <c r="O12">
-        <v>0.01220388106849596</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P12">
-        <v>0.01220388106849596</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q12">
-        <v>0.4080573907213333</v>
+        <v>0.004489642575</v>
       </c>
       <c r="R12">
-        <v>3.672516516492</v>
+        <v>0.040406783175</v>
       </c>
       <c r="S12">
-        <v>0.0003661663988166573</v>
+        <v>4.087823542738687E-06</v>
       </c>
       <c r="T12">
-        <v>0.0003661663988166573</v>
+        <v>4.087823542738686E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5010290000000001</v>
+        <v>0.009603</v>
       </c>
       <c r="H13">
-        <v>1.503087</v>
+        <v>0.028809</v>
       </c>
       <c r="I13">
-        <v>0.0300040943337204</v>
+        <v>0.0005608007788958107</v>
       </c>
       <c r="J13">
-        <v>0.0300040943337204</v>
+        <v>0.0005608007788958106</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.34528366666666</v>
+        <v>63.556834</v>
       </c>
       <c r="N13">
-        <v>196.035851</v>
+        <v>190.670502</v>
       </c>
       <c r="O13">
-        <v>0.9791603749844043</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P13">
-        <v>0.9791603749844044</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q13">
-        <v>32.73988213022633</v>
+        <v>0.6103362769020001</v>
       </c>
       <c r="R13">
-        <v>294.658939172037</v>
+        <v>5.493026492118</v>
       </c>
       <c r="S13">
-        <v>0.02937882025887311</v>
+        <v>0.0005557117209285805</v>
       </c>
       <c r="T13">
-        <v>0.02937882025887311</v>
+        <v>0.0005557117209285804</v>
       </c>
     </row>
   </sheetData>
